--- a/biology/Histoire de la zoologie et de la botanique/Olivier_Sylvain_Gérard_Pauwels/Olivier_Sylvain_Gérard_Pauwels.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Olivier_Sylvain_Gérard_Pauwels/Olivier_Sylvain_Gérard_Pauwels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Olivier_Sylvain_G%C3%A9rard_Pauwels</t>
+          <t>Olivier_Sylvain_Gérard_Pauwels</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier Sylvain Gérard Pauwels est un zoologiste belge, né le 1er septembre 1971 à Asse près de Bruxelles. Il a étudié les sciences puis la taxinomie à l'université de Bruxelles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Olivier_Sylvain_G%C3%A9rard_Pauwels</t>
+          <t>Olivier_Sylvain_Gérard_Pauwels</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est spécialiste des faunes de reptiles et d'amphibiens d'Afrique et d'Asie, et il a participé à la découverte de nombreuses nouvelles espèces dans ces deux groupes, mais a également travaillé sur d'autres groupes d'animaux comme les insectes. Il est (co-)auteur de plus de 150 publications biologiques. Il a travaillé au Gabon pour le World Wide Fund for Nature (WWF). Il est actuellement directeur du programme de la Smithsonian Institution au Gabon.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Olivier_Sylvain_G%C3%A9rard_Pauwels</t>
+          <t>Olivier_Sylvain_Gérard_Pauwels</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
